--- a/Articles/362/model/SupportPlanning/wb.xlsx
+++ b/Articles/362/model/SupportPlanning/wb.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\u\s\How To\feature-branch-362-ref-timezone\Articles\362\model\SupportPlanning\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85AC179-1DE2-416B-9525-0C6C6ECF9689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-24735" yWindow="-2160" windowWidth="16125" windowHeight="12930"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,84 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
-  <si>
-    <t>22.08.2020 18:00 DST</t>
-  </si>
-  <si>
-    <t>18.08.2020 18:00 DST</t>
-  </si>
-  <si>
-    <t>17.08.2020 18:00 DST</t>
-  </si>
-  <si>
-    <t>19.08.2020 18:00 DST</t>
-  </si>
-  <si>
-    <t>20.08.2020 18:00 DST</t>
-  </si>
-  <si>
-    <t>21.08.2020 18:00 DST</t>
-  </si>
-  <si>
-    <t>23.08.2020 18:00 DST</t>
-  </si>
-  <si>
-    <t>19.08.2020 02:00 DST</t>
-  </si>
-  <si>
-    <t>22.08.2020 02:00 DST</t>
-  </si>
-  <si>
-    <t>23.08.2020 02:00 DST</t>
-  </si>
-  <si>
-    <t>18.08.2020 10:00 DST</t>
-  </si>
-  <si>
-    <t>20.08.2020 02:00 DST</t>
-  </si>
-  <si>
-    <t>21.08.2020 10:00 DST</t>
-  </si>
-  <si>
-    <t>23.08.2020 10:00 DST</t>
-  </si>
-  <si>
-    <t>17.08.2020 02:00 DST</t>
-  </si>
-  <si>
-    <t>18.08.2020 02:00 DST</t>
-  </si>
-  <si>
-    <t>21.08.2020 02:00 DST</t>
-  </si>
-  <si>
-    <t>17.08.2020 10:00 DST</t>
-  </si>
-  <si>
-    <t>19.08.2020 10:00 DST</t>
-  </si>
-  <si>
-    <t>20.08.2020 10:00 DST</t>
-  </si>
-  <si>
-    <t>22.08.2020 10:00 DST</t>
-  </si>
-  <si>
-    <t>br1</t>
-  </si>
-  <si>
-    <t>br2</t>
-  </si>
-  <si>
-    <t>br3</t>
-  </si>
-  <si>
-    <t>br4</t>
-  </si>
-  <si>
-    <t>br5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>ch1</t>
+  </si>
+  <si>
+    <t>ch2</t>
+  </si>
+  <si>
+    <t>ch3</t>
+  </si>
+  <si>
+    <t>ch4</t>
+  </si>
+  <si>
+    <t>ch5</t>
   </si>
   <si>
     <t>ir1</t>
@@ -144,7 +87,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\.m\.yy\ hh:mm"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -170,14 +116,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,241 +402,248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21" customWidth="true"/>
+    <col min="4" max="5" width="19.7109375" customWidth="true"/>
+    <col min="6" max="6" width="19.140625" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="2">
-      <c r="C2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44065.75</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4">
-      <c r="B4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="0" t="s">
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44061.75</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5">
-      <c r="B5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="0" t="s">
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>0</v>
+      <c r="C5" s="1">
+        <v>44060.75</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44065.75</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6">
-      <c r="B6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="0" t="s">
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="C6" s="1">
+        <v>44062.75</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44063.75</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44064.75</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44066.75</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="C7" s="1">
+        <v>44062.75</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44063.75</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44064.75</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44066.75</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="C8" s="1">
+        <v>44062.083333333336</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44065.083333333336</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44066.083333333336</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="C9" s="1">
+        <v>44061.416666666664</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44063.083333333336</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44064.416666666664</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44066.416666666664</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>9</v>
+      <c r="C10" s="1">
+        <v>44065.083333333336</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44066.083333333336</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11">
-      <c r="B11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="0" t="s">
+    <row r="11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44060.083333333336</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44061.083333333336</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44063.083333333336</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44064.083333333336</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44060.083333333336</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44061.083333333336</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44062.083333333336</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44064.083333333336</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44061.416666666664</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44064.416666666664</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44066.416666666664</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="C14" s="1">
+        <v>44060.416666666664</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44062.416666666664</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44063.416666666664</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44065.416666666664</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>2</v>
+      <c r="C15" s="1">
+        <v>44060.75</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16">
-      <c r="B16" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>1</v>
+    <row r="16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44060.416666666664</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44062.416666666664</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44063.416666666664</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44065.416666666664</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44061.75</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -699,5 +651,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>